--- a/data/tle/2020-01-05_CAT.xlsx
+++ b/data/tle/2020-01-05_CAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/bsrte/data/tle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F768D-01D8-864F-934E-C5F6840FAA67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0AA58-A9EF-F14E-A5AA-35394A888D88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Frag.</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>10,10,7</t>
-  </si>
-  <si>
-    <t>9.2,</t>
   </si>
   <si>
     <t>CAT</t>
@@ -700,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="169" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="169" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -779,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1461,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5">
